--- a/suppxls/Scen_demo_NoRecordsEnhancement_UPD.xlsx
+++ b/suppxls/Scen_demo_NoRecordsEnhancement_UPD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Model_Demo_Adv_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735CF9BC-D51E-472F-8362-486C56017DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE9194A-D6ED-4EF1-9759-3BAA306A805D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="2250" windowWidth="28800" windowHeight="15345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-9900" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="17" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="105">
   <si>
     <t>Attribute</t>
   </si>
@@ -329,6 +329,15 @@
   </si>
   <si>
     <t>~TFM_UPD-AT</t>
+  </si>
+  <si>
+    <t>dasdsad</t>
+  </si>
+  <si>
+    <t>ewqewqe</t>
+  </si>
+  <si>
+    <t>sfsdfsdf</t>
   </si>
 </sst>
 </file>
@@ -7319,8 +7328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E903F0BA-7879-4E52-9B65-D85A41EDE771}">
   <dimension ref="B4:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7584,6 +7593,9 @@
       <c r="E25" t="s">
         <v>46</v>
       </c>
+      <c r="G25" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
@@ -7637,6 +7649,9 @@
       <c r="E32" t="s">
         <v>46</v>
       </c>
+      <c r="H32" t="s">
+        <v>103</v>
+      </c>
       <c r="I32" t="s">
         <v>31</v>
       </c>
@@ -7686,6 +7701,9 @@
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>46</v>
+      </c>
+      <c r="G39" t="s">
+        <v>102</v>
       </c>
       <c r="H39" t="s">
         <v>31</v>
